--- a/Project Work 2 - Recettes Théâtres/Recettes Théâtres 1858/Recettes mensili 1858.xlsx
+++ b/Project Work 2 - Recettes Théâtres/Recettes Théâtres 1858/Recettes mensili 1858.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sollecito\Desktop\Teatri\Teatro 1858\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michele.sollecito\Documents\GitHub\mapping-paris\Project Work 2 - Recettes Théâtres\Recettes Théâtres 1858\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -531,14 +531,14 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="6" width="11.6328125" customWidth="1"/>
-    <col min="7" max="8" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -549,7 +549,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -575,7 +575,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -586,7 +586,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -608,7 +608,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -652,7 +652,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
         <v>442448.91000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -700,7 +700,7 @@
         <v>674777.75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
         <v>681095.15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
@@ -748,7 +748,7 @@
         <v>745118.3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
